--- a/schema/perfil-regional-metadatos.xlsx
+++ b/schema/perfil-regional-metadatos.xlsx
@@ -20,34 +20,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Example</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="212">
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Ejemplo</t>
   </si>
   <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Identifier</t>
-  </si>
-  <si>
-    <t>catalog</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Si</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">List of metadata fields of the class "Catalog". Contains </t>
+      <t xml:space="preserve">Lista de campos de metadata de la clase "Catálogo". Contiene </t>
     </r>
     <r>
       <rPr>
@@ -57,15 +63,19 @@
     </r>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>It's a unique identifier of the catalogue inside the open data catalogue network where it belongs. This identifier can be granted by the area in charge of open data policy of a country to its organisms, or established following any international convention in the case of catalogues of national jurisdiction hierarchy.
-The identifier must be one or more words in lower case, separated by "-", without using special characters. Identifies the catalogue in a short and declarative way.</t>
-  </si>
-  <si>
-    <t>"energy"
-"justice"
+    <t>Identificador único del dataset, este identificador debe ser único para todo el catálogo.</t>
+  </si>
+  <si>
+    <t>Es el identificador único del catálogo dentro de la red de catálogos de datos abiertos a la que pertenece. Este identificador puede ser otorgado por el área a cargo de la política de apertura de un país a sus organismos, o establecido por alguna convención internacional para el caso de catálogos de jerarquía jurisdiccional nacional.
+El identificador debe ser una o más palabras en minúsculas, separadas con guiones medios, sin usar caracteres especiales. Identifica en forma breve, sucinta y declarativa al catálogo.</t>
+  </si>
+  <si>
+    <t>"dataset-ejemplo-35782”</t>
+  </si>
+  <si>
+    <t>"energia"
+"desarrollo-social"
+"justicia"
 "argentina"
 "mexico"</t>
   </si>
@@ -77,100 +87,101 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">List of metadata fields of the class "Dataset". Contains </t>
+      <t xml:space="preserve">Lista de campos de metadata de la clase "Dataset". Contiene </t>
     </r>
     <r>
       <rPr>
         <b/>
       </rPr>
-      <t>distributions</t>
+      <t>distribuciones.</t>
     </r>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Título</t>
+  </si>
+  <si>
+    <t>Nombre dado al catálogo. Debe ser claro, breve y lo suficientemente abstracto como para abarcar la multiplicidad de datasets que contiene.</t>
+  </si>
+  <si>
+    <t>Datos Argentina</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Descripción del contenido del catálogo.</t>
+  </si>
+  <si>
+    <t>Portal de Datos Abiertos del Gobierno de la República Argentina</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>Autoridad responsable de la publicación del catálogo.</t>
+  </si>
+  <si>
+    <t>Ministerio de Modernización</t>
+  </si>
+  <si>
+    <t>publisher -&gt; name</t>
+  </si>
+  <si>
+    <t>Correo electrónico del autor</t>
+  </si>
+  <si>
+    <t>Correo electrónico de contacto de la autoridad responsable de la publicación del catálogo.</t>
+  </si>
+  <si>
     <r>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Name given to the catalogue. Should be clear, short and abstract enough to include the diversity of datasets contained.</t>
-  </si>
-  <si>
-    <t>Argentina's Data</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>Description of catalogue contents.</t>
-  </si>
-  <si>
-    <t>Open Data Portal of Argentina's National Administration.</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Responsibile authority of catalogue publication.</t>
-  </si>
-  <si>
-    <t>Ministry of Modernization</t>
-  </si>
-  <si>
-    <t>publisher -&gt; name</t>
-  </si>
-  <si>
-    <t>distribution</t>
-  </si>
-  <si>
-    <t>Author e-mail</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List of metadata fields of the class "Distribution". May contain </t>
+      <t xml:space="preserve">Lista de campos de metadata de la clase "Distribución". Puede contener </t>
     </r>
     <r>
       <rPr>
         <b/>
       </rPr>
-      <t>fields</t>
+      <t>campos</t>
     </r>
     <r>
-      <t xml:space="preserve"> (if it's a tabular distribution).</t>
+      <t xml:space="preserve"> (si es una distribución tabular).</t>
     </r>
   </si>
   <si>
-    <t>Responsibile authority of catalogue publication e-mail.</t>
+    <t>datos@modernizacion.gob.ar</t>
+  </si>
+  <si>
+    <t>Nombre asignado al dataset tal como será publicado.
+Debe ser claro y lo suficientemente abstracto como para abarcar la multiplicidad de distribuciones que contiene. Se recomienda no exceder los 100 caracteres en la mayoría de los casos.</t>
   </si>
   <si>
     <t>field</t>
   </si>
   <si>
-    <t>datos@modernizacion.gob.ar</t>
-  </si>
-  <si>
     <t>publisher -&gt; mbox</t>
   </si>
   <si>
-    <t>List of metadata fields of the class "Field".</t>
+    <t>Sistema de contrataciones electrónicas</t>
+  </si>
+  <si>
+    <t>Lista de campos de metadata de la clase "Campo".</t>
+  </si>
+  <si>
+    <t>Datasets</t>
   </si>
   <si>
     <t>theme</t>
   </si>
   <si>
-    <t>Datasets</t>
-  </si>
-  <si>
-    <t>List of datasets of the catalogue.</t>
+    <t>Contiene una lista de los datasets que forman parte del catálogo.</t>
   </si>
   <si>
     <t>[{...}, {...}]</t>
@@ -179,120 +190,66 @@
     <t>Array</t>
   </si>
   <si>
-    <t>Date of creation or publication</t>
-  </si>
-  <si>
-    <t>Date of creation or publication of the catalog. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>"2016-04-14T19:48:05.433640" specifies date and time
-"2016-04-14" specifies date only</t>
+    <t>Fecha de creación o publicación</t>
+  </si>
+  <si>
+    <t>Fecha de creación o publicación del catálogo. Se escribe según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.</t>
+  </si>
+  <si>
+    <t>"2016-04-14T19:48:05.433640" para especificar fecha y hora
+"2016-04-14" para especificar fecha únicamente</t>
   </si>
   <si>
     <t>issued</t>
   </si>
   <si>
-    <t>Date of last modification or update of data or metadata</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any data or metadata in the catalogue. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
+    <t>Fecha de última actualización/ modificación</t>
+  </si>
+  <si>
+    <t>Fecha de última actualización/modificación del catálogo (ya sea de sus datos o de sus metadatos). Se escribe según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.</t>
+  </si>
+  <si>
+    <t>"2016-04-19T19:48:05.433640" para especificar fecha y hora
+"2016-04-19" para especificar fecha únicamente</t>
   </si>
   <si>
     <t>modified</t>
   </si>
   <si>
-    <t>Date of last modification or update of data</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Date of last modification or update of any data in the catalogue. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
+    <t>Fecha de última actualización/modificación de los datos del catálogo. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el catálogo.</t>
+  </si>
+  <si>
+    <t>Descripción del contenido del dataset de un modo claro y conciso.
+Se recomienda no exceder los 500 caracteres en la mayoría de los casos.</t>
+  </si>
+  <si>
+    <t>Datos correspondiente al Sistema de Contrataciones Electrónicas (Argentina Compra)</t>
   </si>
   <si>
     <t>dataModified</t>
   </si>
   <si>
-    <t>Date of last modification or update of metadata</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any metadata in the catalogue. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
+    <t>Fecha de última actualización/modificación de los metadatos del catálogo. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el catálogo.</t>
+  </si>
+  <si>
+    <t>Autoridad responsable de la publicación del dataset. 
+Se recomienda adoptar un vocabulario controlado con las dependencias del país de que se trate y definir una forma de expresar la pertenencia jerárquica de la organización (Ej.: utilizar puntos o guiones medios para separar niveles jerárquicos, expresarlos en forma descendente o ascendente, etc.)</t>
   </si>
   <si>
     <t>metadataModified</t>
   </si>
   <si>
-    <t>Languages</t>
-  </si>
-  <si>
-    <t>Language(s) for metadata in this catalogue. There are 2 ISO standards that can be used in this field:
-(a) ISO 639-1 (2 letters as "en" or "es")
-(b) ISO 639-2/T (3 letters as "eng" or "esp" - this is the most recommended one)
-1 or more languages can be defined in the list. (Link to ISO standards: https://www.loc.gov/standards/iso639-2/php/code_list.php)</t>
-  </si>
-  <si>
-    <t>["es"] for a language in ISO 639-1
-["spa", ”eng"] for two languages in ISO 639-2</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>Theme taxonomy</t>
-  </si>
-  <si>
-    <t>Is the system of theme classification, created by the organization responsible of the catalogue.
-Defines a list of themes that can be used to classify datasets in this catalogue. If there is at least one dataset classified as having one or more themes in the catalogue, this metadata field is mandatory because it is neccessary to make explicit the theme taxonomy available to use a theme for a dataset.
-For national catalogues, or others that have a broad variety datasets of different themes, it is recommended to use the European Union theme taxonomy (see standards/themeTaxonomy in the repository). This taxonomy has 13 general themes, under wicho any dataset can be classified. Nevertheless, some countries could prefer to develop a more detailed theme taxonomy, with more specific themes.</t>
-  </si>
-  <si>
-    <t>themeTaxonomy</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>License under wich all datasets and distributions are available to use. This should be a link to the selected license defined in the web or the specific strings that acts as a title as it appears in the Open Definition list of licenses (https://licenses.opendefinition.org/).
-It is recommended using "Creative Commons 4.0" as it covers data and contents, and is available in English and Spanish. A dataset or distribution specifying a different license, overwrites the general license of the catalogue.</t>
-  </si>
-  <si>
-    <t>"https://creativecommons.org/licenses/by/4.0/" if using a link
-"Creative Commons 4.0" if using the name of the license</t>
-  </si>
-  <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>Catalog web site</t>
-  </si>
-  <si>
-    <t>Access URL to the landing page of the catalogue, if any.</t>
-  </si>
-  <si>
-    <t>http://datos.gob.ar</t>
-  </si>
-  <si>
-    <t>Unique identifier of the dataset. This identifier has to be unique inside the whole catalogue.</t>
-  </si>
-  <si>
-    <t>"dataset-example-35782”</t>
-  </si>
-  <si>
-    <t>homepage</t>
-  </si>
-  <si>
-    <t>Metadata schema version</t>
-  </si>
-  <si>
-    <t>Name assigned to the dataset as it will be published.
-It must be clear, precise but general enough to include the distributions it contains. It is recommended not to exceed 100 characters, in most cases.</t>
-  </si>
-  <si>
-    <t>System of Electronic Contracts</t>
+    <t>Ministerio de Modernización. Secretaría de Modernización Administrativa. Oficina Nacional de Contrataciones.</t>
+  </si>
+  <si>
+    <t>Idioma(s)</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">List of metadata fields of the class "Theme". Themes are to classify </t>
+      <t xml:space="preserve">Lista de campos de metadata de la clase "Tema". Los temas cumplen la función de clasificar temáticamente a los </t>
     </r>
     <r>
       <rPr>
@@ -302,22 +259,118 @@
     </r>
   </si>
   <si>
-    <t>Descriptions of the contents of the datasets, in a clear and precise way.
-It is recommended not to exceed 500 characters, in most cases.</t>
-  </si>
-  <si>
-    <t>Data about the System of Electronic Contracts ("Argentine Buys")</t>
-  </si>
-  <si>
-    <t>Authority responsible of dataset publication.
-It is recommended the adoption of a controlled vocabulary of the organizations of the country or national administration in charge of the catalogue. Also a way of expressing hiearchy should be defined (ie.: using dots or "-" to separate hierarchical levels, express them ascending or descending way, etc.)</t>
-  </si>
-  <si>
-    <t>Ministry of Modernization. Secretary of Administrative Modernization. National Office of Contracts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is the metadata scheme version used in the catalogue.
-It should be used for applications to recongize and validate metadata of this catalogue, and be able to safely build functionality upon a certain metadata scheme they can trust. </t>
+    <t>Correo electrónico de contacto de la autoridad responsable de la publicación del dataset.</t>
+  </si>
+  <si>
+    <t>onc@modernizacion.gob.ar</t>
+  </si>
+  <si>
+    <t>Lenguaje para la descripción de los metadatos de los datasets contenidos en el catálogo. Hay 2 estándares ISO que pueden ser utilizados para este campo:
+(a) ISO 639-1 (2 letras)
+(b) ISO 639-2/T (3 letras) es el más recomendado.
+Puede definirse 1 o más lenguajes en una lista. (Link a los estándares ISO: https://www.loc.gov/standards/iso639-2/php/code_list.php)</t>
+  </si>
+  <si>
+    <t>["es"] para un lenguaje ISO 639-1
+["spa", ”eng"] para dos lenguajes ISO 639-2</t>
+  </si>
+  <si>
+    <t>Área/Persona de contacto</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Taxonomía temática</t>
+  </si>
+  <si>
+    <t>Área/persona de contacto que puede brindar información relevante sobre el dataset. Este es un punto de contacto más próximo al mantenimiento u operación de este dataset.</t>
+  </si>
+  <si>
+    <t>Ministerio de Modernización. Secretaría de Modernización Administrativa. Oficina Nacional de Contrataciones. Dirección de Compras Electrónicas.</t>
+  </si>
+  <si>
+    <t>contactPoint -&gt; fn</t>
+  </si>
+  <si>
+    <t>Correo electrónico del área/persona de contacto</t>
+  </si>
+  <si>
+    <t>Es el sistema de clasificación temática, creado por la organización responsable del catálogo.
+Compone una lista de temas que se pueden usar para clasificar los datasets del catálogo. Si se clasifica a algún dataset del catálogo como perteneciente a uno o más temas, este campo es obligatorio ya que se debe explicitar una taxonomía temática para poder usar sus temas.
+Para catálogos nacionales o que reúnen datasets de temáticas variadas, se recomienda utilizar la taxonomía temática de la Unión Europea (Ver standards/themeTaxonomy). Esta taxonomía está formada por 13 temas generales, bajo los cuales cualquier activo de datos puede ser clasificado. Sin embargo algunos países podrían querer desarrollar una taxonomía temática más detallada, con temas más específicos.</t>
+  </si>
+  <si>
+    <t>Correo electrónico del área/persona de contacto que puede brindar información relevante sobre el dataset.</t>
+  </si>
+  <si>
+    <t>themeTaxonomy</t>
+  </si>
+  <si>
+    <t>onc-compraselectronicas@modernizacion.gob.ar</t>
+  </si>
+  <si>
+    <t>contactPoint -&gt; hasEmail</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Fuente primaria</t>
+  </si>
+  <si>
+    <t>Indica la licencia bajo la cual todos los datasets y distribuciones del catálogo están disponibles mediante un enlace a la licencia o documento de la licencia seleccionada, o mediante el título textual de la licencia tal como aparece en la lista de http://opendefinition.org/licenses/.
+Se recomienda utilizar la licencia "Open Database License (ODbL) v1.0". Un dataset o distribución que especifique una licencia diferente, sobreescribe a la licencia general del catálogo.</t>
+  </si>
+  <si>
+    <t>"http://opendatacommons.org/licenses/dbcl/1-0/" si se utiliza un enlace
+"Open Database License (ODbL) v1.0" si se consigna el nombre de la licencia a utilizar</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>Página web del catálogo</t>
+  </si>
+  <si>
+    <t>Dirección web o enlace de acceso a la página principal del catálogo</t>
+  </si>
+  <si>
+    <t>http://datos.gob.ar</t>
+  </si>
+  <si>
+    <t>Fuente original o primaria de los datos publicados en el dataset. Se utiliza cuando la entidad responsable de la publicación del dataset, no es la entidad que produce los datos.</t>
+  </si>
+  <si>
+    <t>Ministerio de Hacienda. Instituto Nacional de Estadísticas y Censos. Dirección Nacional de Cuentas Nacionales.</t>
+  </si>
+  <si>
+    <t>attribution</t>
+  </si>
+  <si>
+    <t>Colaboradores</t>
+  </si>
+  <si>
+    <t>Entidades, organizaciones o personas adicionales que son o fueron responsables de recolectar, crear o contribuir en forma alguna al desarrollo del activo de datos. Los valores deben separarse por comas.</t>
+  </si>
+  <si>
+    <t>Instituto Argentino de Análisis Fiscal</t>
+  </si>
+  <si>
+    <t>homepage</t>
+  </si>
+  <si>
+    <t>Version del perfil de metadatos</t>
+  </si>
+  <si>
+    <t>contributor</t>
+  </si>
+  <si>
+    <t>Distribuciones</t>
+  </si>
+  <si>
+    <t>Es la versión del perfil de metadatos utilizada en el catálogo.
+Se utiliza para que distintas aplicaciones reconozcan y validen los metadatos del catálogo, y las funcionalidades disponibles para distintos fines.</t>
   </si>
   <si>
     <t>1.0</t>
@@ -326,54 +379,45 @@
     <t>metadataSchemeVersion</t>
   </si>
   <si>
-    <t>Responsibile authority of dataset publication e-mail.</t>
-  </si>
-  <si>
-    <t>onc@modernizacion.gob.ar</t>
-  </si>
-  <si>
-    <t>Point of contact</t>
-  </si>
-  <si>
-    <t>Area or person acting as a point of contact that can bring relevant information of the dataset to a user. This should be te closest point of contact to the operation and maintainment of the dataset.</t>
-  </si>
-  <si>
-    <t>Ministerio de Modernización. Secretaría de Modernización Administrativa. Oficina Nacional de Contrataciones. Dirección de Compras Electrónicas.</t>
-  </si>
-  <si>
-    <t>contactPoint -&gt; fn</t>
-  </si>
-  <si>
-    <t>Spatial coverage</t>
-  </si>
-  <si>
-    <t>Point of contact e-mail</t>
-  </si>
-  <si>
-    <t>E-mail of the area or person acting as a point of contact that can bring relevant information of the dataset to a user.</t>
-  </si>
-  <si>
-    <t>onc-compraselectronicas@modernizacion.gob.ar</t>
-  </si>
-  <si>
-    <t>contactPoint -&gt; hasEmail</t>
-  </si>
-  <si>
-    <t>Is the spatial area covered by the catalogue. This can be expressed using very different standards. It is recommended to develop a guide of territorial and administrative units specific to the country that manages the catalogue, where official codes are used to express spatial coverage.
-A certain region or place. Can have different values:
-a) of countries, provinces, departments, counties, municipalities or cities, under the recommendations of the guide of territorial and administrative units of the country that is managing the catalogue.
-b) an area of coordinates (or bounding box) represented by latitude / longitude in this order: minimum longitude, minimum latitude, maximum longitude, maximum latitude.
-c) a geographical point represented by latitude / longitude.
-d) if the geographical reference is not included in the official guide of territorial and administrative units of the country, can be referenced using a geonames URI from geonames.org as: http://sws.geonames.org/6255146</t>
-  </si>
-  <si>
-    <t>Primary or original source</t>
-  </si>
-  <si>
-    <t>"ARG" is the code for Argentina.
-"06007" is the official code of a "department" in Argentina
-[-58.111111, -35.111111, -57.111111, -33.111111] it's a bounding box
-[-58.111111, -35.111111] it's a geographical point
+    <t>Lista de distribuciones que pertenecen al dataset y sus metadatos. Cada distribución se representa con un objeto ("{}") donde se describen los metadatos especificados para la clase "distribution" de este perfil de metadatos.</t>
+  </si>
+  <si>
+    <t>Temática(s)</t>
+  </si>
+  <si>
+    <t>Temática/s o categoría/s a la/s que se refiere el dataset al ser publicado.
+Un dataset puede pertenecer a más de una categoría temática, de manera que el tipo de valor de este campo es una lista de categorías. La taxonomía a utilizar debe ser creada por la autoridad responsable del catálogo. Se deben usar los ids (ver campo "id" de la clase Theme) de los temas definidos en la taxonomía para componer la lista (no se deben usar las etiquetas ni las descripciones).</t>
+  </si>
+  <si>
+    <t>["gove", "econ"]</t>
+  </si>
+  <si>
+    <t>Fecha de publicación</t>
+  </si>
+  <si>
+    <t>Fecha de publicación del dataset. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.</t>
+  </si>
+  <si>
+    <t>Cobertura geográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de última actualización/modificación de dataset (ya sea de sus datos o de sus metadatos). Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.
+</t>
+  </si>
+  <si>
+    <t>El área geográfica cubierta por el catálogo. Esta se puede expresar mediante diferentes estándares. Se recomienda el desarrollo de una guía de unidades territoriales y político-administrativas específica para el país que administra el catálogo, donde se especifiquen los códigos oficiales que deben usarse para señalar cobertura geográfica.
+Una región o un lugar determinado. Puede tomar valores:
+a) de países, provincias, departamentos, condados, municipios o localidades, según las recomendaciones de la guía de unidades territoriales o político-administrativas oficial del país que administra el catálogo.
+b) un área de coordenadas representada por latitud/ longitud en el orden: minima longitud, minima latitud, maxima longitud, maxima latitud.
+c) un punto geográfico representado por latitud/longitud.
+d) Si la referencia geográfica no está incluida en la guía de unidades territoriales o político-administrativas oficial, se puede indicar la URIs según geonames.org; ej :
+http://sws.geonames.org/6255146</t>
+  </si>
+  <si>
+    <t>"ARG" es el código para la República Argentina.
+"06007" es el código de un departamento en Argentina
+[-58.111111, -35.111111, -57.111111, -33.111111] es un bounding box
+[-58.111111, -35.111111] es un punto geográfico
 "http://sws.geonames.org/6255146"</t>
   </si>
   <si>
@@ -383,81 +427,40 @@
     <t>String or Array</t>
   </si>
   <si>
-    <t>Additional rights or terms and conditions of the catalogue</t>
-  </si>
-  <si>
-    <t>Information about additional rights or terms or conditions applyable to the catalogue, in case they are not covered by the license. Datasets and distributions inherit this additional terms, unless different terms are specified in particular cases.</t>
+    <t>Derechos sobre el catálogo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de última actualización/modificación de los datos del dataset. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.
+</t>
+  </si>
+  <si>
+    <t>Información sobre derechos aplicables al catálogo en el caso que no se hayan especificado en la licencia. Los datasets y sus distribuciones heredan la información sobre derechos aplicables al catálogo, a menos que especifiquen unos derechos distintos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de última actualización/modificación de los metadatos del dataset. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.
+</t>
+  </si>
+  <si>
+    <t>Frecuencia de actualización</t>
   </si>
   <si>
     <t>rights</t>
   </si>
   <si>
-    <t>Original or primary sources of data published in the dataset. It should be used when the publisher authority of the dataset it is not the one producing the data originally.</t>
-  </si>
-  <si>
-    <t>Ministerio de Hacienda. Instituto Nacional de Estadísticas y Censos. Dirección Nacional de Cuentas Nacionales.</t>
-  </si>
-  <si>
-    <t>attribution</t>
-  </si>
-  <si>
-    <t>Collaborators</t>
-  </si>
-  <si>
-    <t>Entities, organizations or additional persons that are or were responsible of collecting, creating or contributing in any way in developing the data asset. Values should be separated by commas ",".</t>
-  </si>
-  <si>
-    <t>Argentine Institute for Fiscal Analysis</t>
-  </si>
-  <si>
-    <t>contributor</t>
-  </si>
-  <si>
-    <t>Distributions</t>
-  </si>
-  <si>
-    <t>List of distributions contained in the dataset and their metadata. Each distribution is an object ("{}") where its metadata is described following "Distribution" class metadata fields.</t>
-  </si>
-  <si>
-    <t>Themes</t>
-  </si>
-  <si>
-    <t>Theme/s or categories of which this dataset has data about.
-A dataset can be classified with one or multiple themes, so this metadata field is a list of themes or categories. The available list of themes to use here is the theme taxonomy defined by the authority behind the catalogue. The ids of the themes must be used here (see "id" of Theme class). Labels and descriptions of the themes, must not be used.</t>
-  </si>
-  <si>
-    <t>["gove", "econ"]</t>
-  </si>
-  <si>
-    <t>Date of creation or publication of the dataset. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any data or metadata in the dataset. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any data in the dataset. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any metadata in the dataset. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Updating frequency</t>
-  </si>
-  <si>
-    <t>Frequency in which responsibles update the dataset.
-It is recommended to use normalized periods following ISO-8601 format, adding the value “eventual” for datasets that are updated in a non regular basis. See annex "Frequencies specification under ISO-8601".</t>
-  </si>
-  <si>
-    <t>“R/P1Y” for datasets yearly updated</t>
+    <t>Frecuencia con la que se actualiza el dataset.
+Se recomienda especificar períodos normalizados con formato ISO-8601, agregando el campo “eventual” para datasets que se publican con una frecuencia eventual o no especificada. Anexo "Especificación de frecuencias según ISO-8601".</t>
+  </si>
+  <si>
+    <t>“R/P1Y” para datasets que se actualizan anualmente</t>
   </si>
   <si>
     <t>accrualPeriodicity</t>
   </si>
   <si>
-    <t>Landing page</t>
-  </si>
-  <si>
-    <t>URL of the webpage where dataset, its resources, reports or any additional information of it can be accessed.</t>
+    <t>Página de referencia</t>
+  </si>
+  <si>
+    <t>URL de la página web a través de la cual se puede acceder al dataset, sus recursos o información adicional sobre el mismo.</t>
   </si>
   <si>
     <t>http://datos.gob.ar/dataset/sistema-de-contrataciones-electronicas-argentina-compra</t>
@@ -466,24 +469,24 @@
     <t>landingPage</t>
   </si>
   <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Words describing title or content of the resource.
-It is neccesary that tags are well written, in plural and keeping an eye of previous tags. Tags are useful por users search. The longer and homogeneous is the list of tags, their efficiency will be better. See annex of “Guidelines for tags selection”.</t>
-  </si>
-  <si>
-    <t>["goods", "contracts", "services"]</t>
+    <t>Etiqueta(s)</t>
+  </si>
+  <si>
+    <t>Palabras que describen el título o el contenido del recurso.
+Es necesario que las etiquetas se encuentren correctamente escritas, en plural y respetando la existencia de tags anteriores. Etiquetas que colaboran en la búsqueda de los usuarios. Cuanto más amplia y uniforme sea la lista de tags mayor será su eficiencia. A tales fines se recomienda ver el Anexo “Pautas para la selección de etiquetas”.</t>
+  </si>
+  <si>
+    <t>["bienes", "compras","contrataciones"]</t>
   </si>
   <si>
     <t>keyword</t>
   </si>
   <si>
-    <t>Temporal coverage</t>
-  </si>
-  <si>
-    <t>Time period covered by the dataset.
-The time period has an initial date and an end date, separated by "/", written in ISO 8601 format using only date part or date &amp; time depending on the precission needed. Optionally, a single date can be specified (instead of two) and this one will be interpreted as an initial date, while the end date will remain unspecified (useful for datasets that are chronologically updated).</t>
+    <t>Cobertura temporal</t>
+  </si>
+  <si>
+    <t>Período de tiempo cubierto por el dataset.
+El intervalo de tiempo está formado por una fecha de inicio y una de fin separadas por “/”, en formato ISO 8601, con el nivel de especificidad requerido por el dataset. Opcionalmente, se puede especificar una sola fecha (en lugar de dos) y esta se interpretará como la fecha de inicio, mientras que el final permanece no especificado.</t>
   </si>
   <si>
     <t>2015-01-01/2015-12-31
@@ -495,32 +498,33 @@
     <t>temporal</t>
   </si>
   <si>
-    <t>License under wich this dataset and its distributions are available to use. This should be a link to the selected license defined in the web or the specific strings that acts as a title as it appears in the Open Definition list of licenses (https://licenses.opendefinition.org/).
-It is recommended using "Creative Commons 4.0" as it covers data and contents, and is available in English and Spanish. A distribution specifying a different license, overwrites the license of this dataset.</t>
-  </si>
-  <si>
-    <t>Language(s) for metadata in this dataset. There are 2 ISO standards that can be used in this field:
-(a) ISO 639-1 (2 letters as "en" or "es")
-(b) ISO 639-2/T (3 letters as "eng" or "esp" - this is the most recommended one)
-1 or more languages can be defined in the list. (Link to ISO standards: https://www.loc.gov/standards/iso639-2/php/code_list.php)</t>
-  </si>
-  <si>
-    <t>Is the spatial area covered by the dataset. This can be expressed using very different standards. It is recommended to develop a guide of territorial and administrative units specific to the country that manages the catalogue, where official codes are used to express spatial coverage.
-A certain region or place. Can have different values:
-a) of countries, provinces, departments, counties, municipalities or cities, under the recommendations of the guide of territorial and administrative units of the country that is managing the catalogue.
-b) an area of coordinates (or bounding box) represented by latitude / longitude in this order: minimum longitude, minimum latitude, maximum longitude, maximum latitude.
-c) a geographical point represented by latitude / longitude.
-d) if the geographical reference is not included in the official guide of territorial and administrative units of the country, can be referenced using a geonames URI from geonames.org as: http://sws.geonames.org/6255146</t>
+    <t>Indica la licencia bajo la cual el dataset y todas sus distribuciones están disponibles mediante un enlace a la licencia o documento de la licencia seleccionada, o mediante el título textual de la licencia tal como aparece en la lista de http://opendefinition.org/licenses/ . Se recomienda utilizar la licencia "Open Database License (ODbL) v1.0". Un dataset hereda por default la licencia general del catálogo salvo que se especifique una licencia diferente en este campo. Las distribuciones del dataset heredan esta licencia salvo que especifiquen una diferente.</t>
+  </si>
+  <si>
+    <t>Lenguaje para la descripción de los metadatos del dataset. Hay 2 estándares ISO que pueden ser utilizados para este campo:
+(a) ISO 639-1 (2 letras)
+(b) ISO 639-2/T (3 letras) es el más recomendado.
+Puede definirse 1 o más lenguajes en una lista. Los lenguajes especificados para un dataset, sobreesriben a los del catálogo. Si este campo está vacío el dataset hereda los lenguajes del catálogo. (Link a los estándares ISO: https://www.loc.gov/standards/iso639-2/php/code_list.php)</t>
+  </si>
+  <si>
+    <t>Una región o lugar determinado al que el dataset haga referencia.
+Esta se puede expresar mediante diferentes estándares. Se recomienda el desarrollo de una guía de unidades territoriales y político-administrativas específica para el país que administra el catálogo, donde se especifiquen los códigos oficiales que deben usarse para señalar cobertura geográfica.
+Una región o un lugar determinado. Puede tomar valores:
+a) de países, provincias, departamentos, condados, municipios o localidades, según las recomendaciones de la guía de unidades territoriales o político-administrativas oficial del país que administra el catálogo.
+b) un área de coordenadas representada por latitud/ longitud en el orden: minima longitud, minima latitud, maxima longitud, maxima latitud.
+c) un punto geográfico representado por latitud/longitud.
+d) Si la referencia geográfica no está incluida en la guía de unidades territoriales o político-administrativas oficial, se puede indicar la URIs según geonames.org; ej :
+http://sws.geonames.org/6255146</t>
   </si>
   <si>
     <t>Array or String</t>
   </si>
   <si>
-    <t>Hierarchy, order or jurisdictional level</t>
-  </si>
-  <si>
-    <t>Classifies a dataset by hierarchy, order or jurisdictional level. Indicates type and scope of legal jurisdiction behind dataset publication.
-Values of this metadata can be "national" or "territorial" (covering national level as one case, and all sub-national levels as the other case), or belong to an alternative controlled vocabulary defined by the country or organization responsible for the open data policy (ie.: "federal", "provincial" o "municipal").</t>
+    <t>Jerarquía, orden o nivel jurisdiccional</t>
+  </si>
+  <si>
+    <t>Clasificación del dataset por su jerarquía, orden o nivel jurisdiccional. Indica el tipo y alcance de la jurisdicción legal que está detrás de la publicación del dataset. 
+El valor puede ser "national" o "territorial" (cubriendo el caso nacional por un lado y todas las jurisdicciones sub-nacionales por otro), o pertenecer a un vocabulario controlado alternativo definido por el país o la organización responsable de la política de apertura (Ej.: "federal", "provincial" o "municipal").</t>
   </si>
   <si>
     <t>"national"
@@ -530,175 +534,150 @@
     <t>jurisdiction</t>
   </si>
   <si>
-    <t>Name of the field, exactly as it is used in the header of the distribution (inside the tabular file).
-It is recommended not to exceed 40 characters in most cases. In case that a longer title is neccessary or much more clear, this one must no exceed 60 characters in any case.
-Must use lower case letters from "a" to "z" without special characters (no accents and no "ñ"), numbers and underscores "_".</t>
+    <t>Identificador único de la distribución, este identificador debe ser único para la distribución dentro del catálogo completo.
+Debe estar compuesto por letras mayúsculas o minúsculas de la "a" a la "z" sin caracteres especiales (sin tildes y sin la "ñ"), números, guiones bajos "_", guiones medios "-" y puntos ".".</t>
+  </si>
+  <si>
+    <t>Identificador del dataset</t>
+  </si>
+  <si>
+    <t>La clave que identifica al conjunto de datos al que pertenece (y bajo el que se agrupa) este recurso.</t>
+  </si>
+  <si>
+    <t>datasetIdentifier</t>
+  </si>
+  <si>
+    <t>Nombre asignado a la distribución.</t>
+  </si>
+  <si>
+    <t>Convocatorias abiertas durante el año 2015</t>
+  </si>
+  <si>
+    <t>Breve descripción de la distribución. Se recomienda no escribir más de una línea. Toda información adicional puede ser incluida en la descripción del dataset.</t>
+  </si>
+  <si>
+    <t>Listado de las convocatorias abiertas durante el año 2015 en el sistema de contrataciones electrónicas</t>
+  </si>
+  <si>
+    <t>URL de descarga</t>
+  </si>
+  <si>
+    <t>URL que permite la descarga directa de la distribución del dataset, vincula directamente a un archivo descargable en un formato dado.</t>
+  </si>
+  <si>
+    <t>http://datos.gob.ar/dataset/becaceb2-dbd0-4879-93bd-5f02bd3b8ca2/resource/bf2f67f4-9ab3-479b-a881-56b43565125e/download/contratos-2015.csv</t>
+  </si>
+  <si>
+    <t>downloadURL</t>
+  </si>
+  <si>
+    <t>URL de acceso</t>
+  </si>
+  <si>
+    <t>URL que permite el acceso a la distribución del dataset. Puede ser una página, feed u otro tipo de recurso que dé acceso indirecto a las distribuciones. Si las distribuciones son solo accesibles a través de la página de referencia del dataset, debe completarse el valor de la URL de acceso a la distribución con el mismo valor de la página de referencia del dataset.</t>
+  </si>
+  <si>
+    <t>http://datos.gob.ar/dataset/sistema-de-contrataciones-electronicas-argentina-compra/archivo/fa3603b3-0af7-43cc-9da9-90a512217d8a</t>
+  </si>
+  <si>
+    <t>accessURL</t>
+  </si>
+  <si>
+    <t>Campos de la distribución</t>
+  </si>
+  <si>
+    <t>Lista de campos que contiene una distribución tabular (no aplica para aquellas distribuciones que no sean tablas) y sus metadatos. Cada campo se representa con un objeto ("{}") donde se describen los metadatos especificados para la clase "field" de este perfil de metadatos (como "nombre", "tipo" y "descripción").</t>
+  </si>
+  <si>
+    <t>Fecha de publicación de la distribución. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.</t>
+  </si>
+  <si>
+    <t>Fecha de última actualización/modificación de la distribución. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de última actualización/modificación de los datos del distribución. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el distribución.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de última actualización/modificación de los metadatos del distribución. Según el formato ISO-8601, tipeado como fecha simple o fecha con hora, con el mayor detalle posible que sea relevante para el distribución.
+</t>
+  </si>
+  <si>
+    <t>Formato del archivo</t>
+  </si>
+  <si>
+    <t>Indica el formato del archivo de la distribución. Si el tipo de la distribución está definido por IANA (http://www.iana.org/assignments/media-types/media-types.xml), debe usarse esa definición. En caso contrario deberán ponerse los caracteres después del punto final del archivo, que determinan el formato (cuando no está definido por IANA).</t>
+  </si>
+  <si>
+    <t>"text/csv" definición de IANA
+"csv" caracteres finales después del punto</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>Indica la licencia bajo la cual la distribución está disponible mediante un enlace a la licencia o documento de la licencia seleccionada, o mediante el título textual de la licencia tal como aparece en la lista de http://opendefinition.org/licenses/ . Se recomienda utilizar la licencia "Open Database License (ODbL) v1.0". Una distribución hereda por default la licencia del dataset al que pertenece, salvo que se especifique una licencia diferente en este campo.</t>
+  </si>
+  <si>
+    <t>Tipo de archivo</t>
+  </si>
+  <si>
+    <t>Indica el tipo de archivo de la distribución, sólo si este está definido por IANA (http://www.iana.org/assignments/media-types/media-types.xml). En caso contrario este campo permanece vacío.</t>
+  </si>
+  <si>
+    <t>"text/csv" definición de IANA
+"" cuando el formato no tiene definición en IANA</t>
+  </si>
+  <si>
+    <t>mediaType</t>
+  </si>
+  <si>
+    <t>Tipo de distribución</t>
+  </si>
+  <si>
+    <t>El nombre del campo tal como se denomina en el encabezado de la distribución.
+Se recomienda no exceder los 40 caracteres en la mayoría de los casos. En caso de que un título más largo se juzgue necesario o significativamente más claro, este no deberá exceder los 60 caracteres en ningún caso.
+Debe estar compuesto por letras minúsculas de la "a" a la "z" sin caracteres especiales (sin tildes y sin la "ñ"), números y guiones bajos "_".</t>
   </si>
   <si>
     <t>Ejemplo para el cuarto campo de la distribución "Convocatorias abiertas durante el año 2015", valor para el nombre: "unidad_operativa_contrataciones_desc"</t>
   </si>
   <si>
-    <t>Unique identifier of the distribution. This identifier must be unique within the catalogue.
-The identifier should use lower or upper letter from "a" to "z" without using special characters (no accents and no "ñ"), numbers, underscores "_", hypens "-" and dots ".".</t>
-  </si>
-  <si>
-    <t>Type of the data contained in the field following the list used by recline.js (http://okfnlabs.org/recline/docs/models.html#types). 
-Types included in this list are:
-string (text): Text values.
-number (double, float, numeric): Numeric values including decimal values.
-integer (int): Numeric values that are always integer.
-date: Simple date expressed as in ISO 8601 standard including year, month and day only (YYYY-MM-DD) as in "2016-02-01".
-time: Time expressed as in ISO 8601 standard including only hours, minutes and seconds (hh:mm:ss) as in "10:05:00".
-date-time (datetime, timestamp): Complete datetime expressed as in ISO 8601 standard including year, month, day, hours, minutes and seconds (YYYY-MM-DDThh:mm:ssZ) as in "2016-02-01T10:05:00+03:00".
-boolean (bool): True or false values.
-binary: Representation of binary data in base64.
-geo_point: See structure in https://www.elastic.co/guide/en/elasticsearch/reference/current/geo-point.html.
-geojson: See in http://geojson.org/
-array: List of values.
-object (json): JSON object.
-any: Field containing values of any type.</t>
+    <t>El identificador del tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo </t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>El tipo de dato contenido en el campo según la lista utilizada por la librería recline.js (http://okfnlabs.org/recline/docs/models.html#types). 
+Los tipos incluidos en esta lista son:
+string (text): Valores de texto.
+number (double, float, numeric): Números que puedan no ser enteros (incluyen decimales).
+integer (int): Números que siempre son enteros.
+date: Fecha simple expresada según el estándar ISO 8601 incluyendo únicamente año, mes y día (YYYY-MM-DD) como en "2016-02-01".
+time: Tiempo expresado según el estándar ISO 8601 incluyendo únicamente horas, minutos y segundos (hh:mm:ss) como en "10:05:00".
+date-time (datetime, timestamp): Fecha completa expresada según el estándar ISO 8601 incluyendo año, mes, día, horas, minutos y segundos (YYYY-MM-DDThh:mm:ssZ) como en "2016-02-01T10:05:00+03:00"
+boolean (bool): Valores verdadero/falso.
+binary: Representación de datos binarios base64.
+geo_point: Ver estructura en https://www.elastic.co/guide/en/elasticsearch/reference/current/geo-point.html.
+geojson: Ver en http://geojson.org/
+array: Lista de valores.
+object (json): Objeto de JSON.
+any: Campo que puede contener valores de cualquier tipo.</t>
   </si>
   <si>
     <t>Ejemplo para el campo "unidad_operativa_contrataciones_desc" de la distribución "Convocatorias abiertas durante el año 2015", valor para tipo: "string"</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Complete description of the information that the field contains. Must be precise and explicit enough so the data user understands how to use the data of this field.</t>
-  </si>
-  <si>
-    <t>Ejemplo para el campo "unidad_operativa_contrataciones_desc" de la distribución "Convocatorias abiertas durante el año 2015", valor para descripción: "Organismo que realiza la convocatoría. Organismo de máximo nivel jerárquico al que pertenece la unidad operativa de contrataciones."</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>Description of the unit of measure in which values are expressed. It is only used in numeric type fields.</t>
-  </si>
-  <si>
-    <t>Millones de pesos a precios de 1993</t>
-  </si>
-  <si>
-    <t>Dataset identifier</t>
-  </si>
-  <si>
-    <t>Unique identifier of the dataset where this distribution belongs.</t>
-  </si>
-  <si>
-    <t>datasetIdentifier</t>
-  </si>
-  <si>
-    <t>Name assigned to the distribution.</t>
-  </si>
-  <si>
-    <t>Contracts open in 2015</t>
-  </si>
-  <si>
-    <t>Short description of the distribution. It is recommended not writing more than one line. Any other additional information can be included in the description.</t>
-  </si>
-  <si>
-    <t>List of contracts that were open during 2015 in the System of Electronic Contracts.</t>
-  </si>
-  <si>
-    <t>units</t>
-  </si>
-  <si>
-    <t>Download URL</t>
-  </si>
-  <si>
-    <t>URL that allows direct download of the distribution Links directly to a downloadable file of a certain format.</t>
-  </si>
-  <si>
-    <t>http://datos.gob.ar/dataset/becaceb2-dbd0-4879-93bd-5f02bd3b8ca2/resource/bf2f67f4-9ab3-479b-a881-56b43565125e/download/contratos-2015.csv</t>
-  </si>
-  <si>
-    <t>Is the spatial area covered by the field. This can be expressed using very different standards. It is recommended to develop a guide of territorial and administrative units specific to the country that manages the catalogue, where official codes are used to express spatial coverage.
-A certain region or place. Can have different values:
-a) of countries, provinces, departments, counties, municipalities or cities, under the recommendations of the guide of territorial and administrative units of the country that is managing the catalogue.
-b) an area of coordinates (or bounding box) represented by latitude / longitude in this order: minimum longitude, minimum latitude, maximum longitude, maximum latitude.
-c) a geographical point represented by latitude / longitude.
-d) if the geographical reference is not included in the official guide of territorial and administrative units of the country, can be referenced using a geonames URI from geonames.org as: http://sws.geonames.org/6255146</t>
-  </si>
-  <si>
-    <t>downloadURL</t>
-  </si>
-  <si>
-    <t>Access URL</t>
-  </si>
-  <si>
-    <t>URL that allows access to the distribution, through a web site, feed or other resource giving indirect access to the resource. If distributions are only accessible through the landing page of the dataset, this metadata field must be completed with the same value as the dataset landing page.</t>
-  </si>
-  <si>
-    <t>http://datos.gob.ar/dataset/sistema-de-contrataciones-electronicas-argentina-compra/archivo/fa3603b3-0af7-43cc-9da9-90a512217d8a</t>
-  </si>
-  <si>
-    <t>accessURL</t>
-  </si>
-  <si>
-    <t>Fields of the distribution</t>
-  </si>
-  <si>
-    <t>List of fields that a tabular distribution contains (it doesn't apply to non tabular distributions) and its metadata. Each field is represente by an object ("{}") where metadata of the Field class are specified.</t>
-  </si>
-  <si>
-    <t>Date of creation or publication of the distribution or resource. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any data or metadata in the distribution or resource. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any data in the distribution or resource. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>Date of last modification or update of any metadata in the distribution or resource. It's written following ISO-8601 format, using either the complete forme (date and time) or only the date part.</t>
-  </si>
-  <si>
-    <t>File format</t>
-  </si>
-  <si>
-    <t>Indicates the format of the file. If the type is defined by IANA (http://www.iana.org/assignments/media-types/media-types.xml), this definition can be used. In other case, the file extension (after the dot "." in the file name) should be used.</t>
-  </si>
-  <si>
-    <t>"text/csv" IANA definition
-"csv" file extension</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>License under wich this distribution is available to use. This should be a link to the selected license defined in the web or the specific strings that acts as a title as it appears in the Open Definition list of licenses (https://licenses.opendefinition.org/).
-It is recommended using "Creative Commons 4.0" as it covers data and contents, and is available in English and Spanish. If the license was specified at the level of dataset, it is not neccessary to use this field unless a different license applies.</t>
-  </si>
-  <si>
-    <t>File type</t>
-  </si>
-  <si>
-    <t>Indicates the type of file of the distribution, only if this one is defined by IANA (http://www.iana.org/assignments/media-types/media-types.xml). If not defined, this field should remain empty.</t>
-  </si>
-  <si>
-    <t>"text/csv" IANA definition
-"" when there is no IANA definition</t>
-  </si>
-  <si>
-    <t>mediaType</t>
-  </si>
-  <si>
-    <t>Resource type</t>
-  </si>
-  <si>
-    <t>Theme unique identifier.</t>
-  </si>
-  <si>
-    <t>AGRI</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <r>
-      <t>Indicates the type of resource.
-+ "Data file" (</t>
+      <t>Indica el tipo de recurso.
++ "Archivo de datos" (</t>
     </r>
     <r>
       <rPr>
@@ -707,7 +686,7 @@
       <t>file</t>
     </r>
     <r>
-      <t>): physical file of a certain format that can be downloaded.
+      <t>): archivo físico de algún formato de datos que se puede descargar.
 + "API" (</t>
     </r>
     <r>
@@ -717,8 +696,8 @@
       <t>api</t>
     </r>
     <r>
-      <t>): api web documentation URL, of data web service.
-+ "Code" (</t>
+      <t>): documentación en línea de un servicio web de datos.
++ "Código" (</t>
     </r>
     <r>
       <rPr>
@@ -727,8 +706,17 @@
       <t>code</t>
     </r>
     <r>
-      <t>): scripting file or repository used for the generation, transformation, cleaning or validation of all or part of the data contained in the dataset.
-+ "Documentation" (</t>
+      <t xml:space="preserve">): repositorio o archivo con </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>scripts</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> utilizados para la generación, transformación, limpieza o validación de los datos de todo o parte del dataset.
++ "Documentación" (</t>
     </r>
     <r>
       <rPr>
@@ -737,65 +725,78 @@
       <t>documentation</t>
     </r>
     <r>
-      <t>): methodological documentation of all or part of the data in this dataset.</t>
+      <t>): documentación metodológica sobre los datos de todo o parte del dataset.</t>
     </r>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>"file"</t>
   </si>
   <si>
-    <t>Is the spatial area covered by the distribution. This can be expressed using very different standards. It is recommended to develop a guide of territorial and administrative units specific to the country that manages the catalogue, where official codes are used to express spatial coverage.
-A certain region or place. Can have different values:
-a) of countries, provinces, departments, counties, municipalities or cities, under the recommendations of the guide of territorial and administrative units of the country that is managing the catalogue.
-b) an area of coordinates (or bounding box) represented by latitude / longitude in this order: minimum longitude, minimum latitude, maximum longitude, maximum latitude.
-c) a geographical point represented by latitude / longitude.
-d) if the geographical reference is not included in the official guide of territorial and administrative units of the country, can be referenced using a geonames URI from geonames.org as: http://sws.geonames.org/6255146</t>
-  </si>
-  <si>
-    <t>Label or title of a theme.</t>
-  </si>
-  <si>
-    <t>Agriculture, fisheries, forestry and food</t>
+    <t>La descripción completa de la información que contiene el campo. Debe ser suficientemente precisa y explicativa para que el usuario de los datos comprenda cabalmente cómo utilizar los datos de este campo.</t>
+  </si>
+  <si>
+    <t>Ejemplo para el campo "unidad_operativa_contrataciones_desc" de la distribución "Convocatorias abiertas durante el año 2015", valor para descripción: "Organismo que realiza la convocatoría. Organismo de máximo nivel jerárquico al que pertenece la unidad operativa de contrataciones."</t>
+  </si>
+  <si>
+    <t>Unidad de medida</t>
+  </si>
+  <si>
+    <t>La descripción de la unidad de medida en la que están expresados los valores del campo. Sólo se utiliza para campos de tipo numérico.</t>
+  </si>
+  <si>
+    <t>Millones de pesos a precios de 1993</t>
+  </si>
+  <si>
+    <t>La etiqueta o título de un tema.</t>
+  </si>
+  <si>
+    <t>Agricultura, pesca, silvicultura y alimentación</t>
+  </si>
+  <si>
+    <t>Período de tiempo cubierto por la distribución.
+El intervalo de tiempo está formado por una fecha de inicio y una de fin separadas por “/”, en formato ISO 8601, con el nivel de especificidad requerido por el dataset. Opcionalmente, se puede especificar una sola fecha (en lugar de dos) y esta se interpretará como la fecha de inicio, mientras que el final permanece no especificado.</t>
   </si>
   <si>
     <t>label</t>
   </si>
   <si>
-    <t>Time period covered by the distribution.
-The time period has an initial date and an end date, separated by "/", written in ISO 8601 format using only date part or date &amp; time depending on the precission needed. Optionally, a single date can be specified (instead of two) and this one will be interpreted as an initial date, while the end date will remain unspecified (useful for datasets that are chronologically updated).</t>
-  </si>
-  <si>
-    <t>Additional rights or terms and conditions of the distribution</t>
-  </si>
-  <si>
-    <t>Information about additional rights or terms or conditions applyable to the distribution, in case they are not covered by the license or the addictional rights specified for the catalog don't apply.</t>
-  </si>
-  <si>
-    <t>Short and precise description of the theme.</t>
-  </si>
-  <si>
-    <t>This concept identifies datasets covering such domains as agriculture, fisheries, forestry or food.</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Size of the file in bytes. Can be approximate if exact size is not known.</t>
-  </si>
-  <si>
-    <t>Example for a 5kb file: ”5120”</t>
+    <t>Derechos sobre la distribución</t>
+  </si>
+  <si>
+    <t>Información sobre derechos aplicables a la distribución que no se hayan especificado en la licencia. Si se especifican, estos derechos sobreescriben a los del catálogo. En caso contrario, las distribuciones heredan los derechos especificados para el catálogo.</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Tamaño de la distribución en bytes. El tamaño puede ser aproximado cuando no se conozca el tamaño exacto.</t>
+  </si>
+  <si>
+    <t>Ejemplo para un archivo de 5Kb aproximadamente: ”5120”</t>
   </si>
   <si>
     <t>byteSize</t>
   </si>
   <si>
+    <t>Una breve y concisa descripción del tema.</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
-    <t>Standard codes</t>
-  </si>
-  <si>
-    <t>Names of standard codes, nomenclators or classifiers used ni the distribution.</t>
+    <t>Nomencladores utilizados</t>
+  </si>
+  <si>
+    <t>Bajo este concepto se incluyen datasets que cubren dominios tales como agricultura, pesca, forestación o alimentos.</t>
+  </si>
+  <si>
+    <t>Nombres de los estándares de los códigos, nomencladores o clasificadores utilizados en la distribución.</t>
   </si>
   <si>
     <t>ISO 8601</t>
@@ -804,10 +805,10 @@
     <t>codelists</t>
   </si>
   <si>
-    <t>Standard codes documentation URLs</t>
-  </si>
-  <si>
-    <t>Links to official sources of the codes and standards used.</t>
+    <t>URLs documentación nomencladores</t>
+  </si>
+  <si>
+    <t>Hipervínculos a las fuentes oficiales de los códigos y estándares utilizados.</t>
   </si>
   <si>
     <t>https://www.w3.org/TR/NOTE-datetime</t>
@@ -831,12 +832,12 @@
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -860,13 +861,13 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <u/>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -890,14 +891,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4A7D6"/>
-        <bgColor rgb="FFB4A7D6"/>
+        <fgColor rgb="FFA48AD4"/>
+        <bgColor rgb="FFA48AD4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA48AD4"/>
-        <bgColor rgb="FFA48AD4"/>
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor rgb="FFB4A7D6"/>
       </patternFill>
     </fill>
     <fill>
@@ -937,15 +938,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -962,46 +963,43 @@
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1013,8 +1011,14 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1072,51 +1076,51 @@
   </cols>
   <sheetData>
     <row r="1" ht="24.0" customHeight="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" ht="45.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="45.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="45.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="45.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="45.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1149,361 +1153,361 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>68</v>
+        <v>86</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>15</v>
+      <c r="A16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="14"/>
+        <v>115</v>
+      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1540,331 +1544,331 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="2.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>107</v>
+        <v>53</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>110</v>
+        <v>9</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>119</v>
@@ -1876,7 +1880,7 @@
         <v>121</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
@@ -1884,19 +1888,19 @@
         <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="12" t="s">
         <v>124</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>125</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1904,7 +1908,7 @@
         <v>126</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>127</v>
@@ -1916,7 +1920,7 @@
         <v>129</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -1924,7 +1928,7 @@
         <v>130</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>131</v>
@@ -1936,87 +1940,87 @@
         <v>133</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>15</v>
+      <c r="F24" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2051,354 +2055,354 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="17">
+        <v>42767.0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="16">
-        <v>42767.0</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>154</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>163</v>
+        <v>151</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>17</v>
+        <v>154</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>168</v>
+        <v>155</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>171</v>
+      <c r="A8" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>159</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
+        <v>105</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>49</v>
+      <c r="A17" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>49</v>
+      <c r="B18" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>132</v>
@@ -2407,85 +2411,85 @@
         <v>133</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="6" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E20" s="6" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
+      <c r="F22" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2524,123 +2528,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>5</v>
+      <c r="A3" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
+      <c r="A4" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>15</v>
+      <c r="A5" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>49</v>
+      <c r="A6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>15</v>
+        <v>110</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2672,83 +2676,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="20" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>15</v>
+      <c r="A2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="A3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>15</v>
+      <c r="F3" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>199</v>
+      <c r="A4" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>204</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
